--- a/analysis/obt/202310.xlsx
+++ b/analysis/obt/202310.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CostOfLivingTracker\analysis\obt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F76B25-BAF1-4F29-AD02-EF90E936A508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE441508-BB94-479E-9235-C8A98D49D979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="870" windowWidth="25500" windowHeight="20730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,9 +455,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -511,15 +510,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -863,7 +859,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1067,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45204</v>
       </c>
       <c r="B11" t="s">
